--- a/req/Access.xlsx
+++ b/req/Access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankajojha/Documents/GitHub.nosync/maximalsecurityservices/req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C25B8-0A89-E34B-A358-759E38666E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7882FD08-3ADC-264B-9035-EFA933D0FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E6133A55-2AB4-429E-8ED3-1528B10DA625}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{E6133A55-2AB4-429E-8ED3-1528B10DA625}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67B3F38-F000-43DC-A5B3-D28EA570DD22}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" zoomScale="167" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6946CD36-D69C-4C66-A807-0CC90CC3468B}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView zoomScale="192" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/req/Access.xlsx
+++ b/req/Access.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankajojha/Documents/GitHub.nosync/maximalsecurityservices/req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7882FD08-3ADC-264B-9035-EFA933D0FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707322DC-D6C3-0B42-80B2-987E7F93312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{E6133A55-2AB4-429E-8ED3-1528B10DA625}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Client</t>
   </si>
@@ -166,13 +166,37 @@
   </si>
   <si>
     <t>Company Address</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+  </si>
+  <si>
+    <t>ActionAddress</t>
+  </si>
+  <si>
+    <t>ApplicationType</t>
+  </si>
+  <si>
+    <t>clients</t>
+  </si>
+  <si>
+    <t>Array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +211,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF663300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,6 +319,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,10 +826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6946CD36-D69C-4C66-A807-0CC90CC3468B}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,7 +838,7 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E1" t="s">
@@ -831,7 +870,7 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -863,7 +902,7 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -889,7 +928,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I4" t="s">
@@ -903,7 +942,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I5" t="s">
@@ -919,6 +958,58 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/req/Access.xlsx
+++ b/req/Access.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pankajojha/Documents/GitHub.nosync/maximalsecurityservices/req/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707322DC-D6C3-0B42-80B2-987E7F93312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C01A1E-56AE-6A46-A990-8C13A359E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{E6133A55-2AB4-429E-8ED3-1528B10DA625}"/>
   </bookViews>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,13 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -307,6 +314,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -319,8 +328,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,14 +682,14 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
       <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
@@ -759,12 +767,12 @@
       <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J14" s="5"/>
+      <c r="J14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -829,7 +837,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -838,19 +846,19 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="M1" t="s">
@@ -870,19 +878,19 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M2" t="s">
@@ -902,19 +910,19 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="M3" t="s">
@@ -928,10 +936,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="K4" t="s">
@@ -942,10 +950,10 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K5" t="s">
@@ -956,7 +964,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I6" t="s">
+      <c r="I6" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -972,43 +980,43 @@
       <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>50</v>
       </c>
     </row>
